--- a/documents/database.xlsx
+++ b/documents/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vote_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>categories表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>posts表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,22 +147,6 @@
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅能修改自己的Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅能删除自己的Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,18 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅能修改自己的Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅能删除自己的Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,14 +176,6 @@
   </si>
   <si>
     <t>查看赞过的话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看最近10条话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看最近10条回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -288,6 +240,194 @@
 * 最近，以创建时间倒序
 * 零回复，回复为0，创建时间倒序
 * 还可以根据category_id查看，创建时间倒序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后操作，仅能修改自己的Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后操作，仅能删除自己的Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后操作，仅能修改自己的Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后操作，仅能删除自己的Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：修改应该权限的问题，应放到权限中解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votes表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteable_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteable_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post单页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心首页列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -360,20 +500,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,13 +591,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -698,183 +933,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A37:C37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -883,223 +1281,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="54">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="94.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="54">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="94.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="81">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="81">
-      <c r="A19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/database.xlsx
+++ b/documents/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,15 +419,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人中心首页列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment the post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,16 +650,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1319,7 +1355,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1337,7 +1373,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1389,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="54">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1371,7 +1407,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="94.5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1423,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1439,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1455,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1471,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1451,7 +1487,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1469,7 +1505,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1539,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1519,7 +1555,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1533,7 +1569,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1583,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1591,50 +1627,153 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/database.xlsx
+++ b/documents/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>用户中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看发布的话题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -323,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注：修改应该权限的问题，应放到权限中解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment the post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,6 +452,73 @@
   </si>
   <si>
     <t>9月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：
+* 修改应该权限的问题，应放到权限中解决
+* 一般情况，comment不支持修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看发布的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：
+* 贴子删除的时候，要同时删除相应的点赞和评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按category访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找分类下的所有posts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +693,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,16 +708,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,11 +1027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
@@ -1042,7 +1100,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -1051,7 +1109,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1060,7 +1118,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1069,19 +1127,19 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
@@ -1113,11 +1171,11 @@
       <c r="C17" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
@@ -1176,11 +1234,11 @@
       <c r="C26" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
@@ -1195,64 +1253,64 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
@@ -1267,16 +1325,16 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
@@ -1285,19 +1343,19 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="4"/>
     </row>
@@ -1317,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1345,85 +1403,85 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="14"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="54">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="54">
-      <c r="A4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="94.5">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1431,295 +1489,299 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" ht="27">
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="40.5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="81">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="81">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>104</v>
@@ -1729,51 +1791,133 @@
     <row r="26" spans="1:6">
       <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
